--- a/Data/aearep-72/candidatepackages.xlsx
+++ b/Data/aearep-72/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,12 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
@@ -40,36 +34,36 @@
     <t>mat2txt</t>
   </si>
   <si>
+    <t>xtgraph</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>xtgraph</t>
-  </si>
-  <si>
     <t>kdens</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>leebounds</t>
   </si>
   <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
     <t>pv</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>levels</t>
   </si>
   <si>
@@ -79,51 +73,45 @@
     <t>running</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>randcmd</t>
   </si>
   <si>
-    <t>median</t>
+    <t>delta</t>
   </si>
   <si>
     <t>bmi</t>
   </si>
   <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>bys</t>
   </si>
   <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
+    <t>subset</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
-    <t>subset</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-72</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-72/data_n_progs</t>
   </si>
   <si>
@@ -154,12 +139,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>00_runall.do</t>
   </si>
   <si>
@@ -173,9 +152,6 @@
   </si>
   <si>
     <t>THP_mergedata.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>coefplot_all.do</t>
@@ -222,7 +198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -230,13 +206,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -256,7 +232,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -268,7 +244,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -280,7 +256,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -292,7 +268,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -304,7 +280,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -316,7 +292,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -328,7 +304,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -340,7 +316,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -352,10 +328,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D11"/>
     </row>
@@ -364,10 +340,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>339</v>
+        <v>522</v>
       </c>
       <c r="C12">
-        <v>0.11240053176879883</v>
+        <v>0.17256198823451996</v>
       </c>
       <c r="D12"/>
     </row>
@@ -376,10 +352,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="C13">
-        <v>0.15517240762710571</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D13"/>
     </row>
@@ -388,10 +364,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C14">
-        <v>0.1840185672044754</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D14"/>
     </row>
@@ -400,10 +376,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="C15">
-        <v>0.18667109310626984</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D15"/>
     </row>
@@ -412,10 +388,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="C16">
-        <v>0.18700265884399414</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D16"/>
     </row>
@@ -424,10 +400,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>565</v>
+        <v>706</v>
       </c>
       <c r="C17">
-        <v>0.18733422458171844</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D17"/>
     </row>
@@ -436,10 +412,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -448,10 +424,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>694</v>
+        <v>884</v>
       </c>
       <c r="C19">
-        <v>0.23010610044002533</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D19"/>
     </row>
@@ -460,10 +436,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C20">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D20"/>
     </row>
@@ -472,10 +448,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>797</v>
+        <v>998</v>
       </c>
       <c r="C21">
-        <v>0.2642572820186615</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D21"/>
     </row>
@@ -484,10 +460,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>985</v>
+        <v>1057</v>
       </c>
       <c r="C22">
-        <v>0.32659152150154114</v>
+        <v>0.34942150115966797</v>
       </c>
       <c r="D22"/>
     </row>
@@ -496,10 +472,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>999</v>
+        <v>1125</v>
       </c>
       <c r="C23">
-        <v>0.33123341202735901</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D23"/>
     </row>
@@ -508,10 +484,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1133</v>
+        <v>1201</v>
       </c>
       <c r="C24">
-        <v>0.37566313147544861</v>
+        <v>0.39702478051185608</v>
       </c>
       <c r="D24"/>
     </row>
@@ -520,10 +496,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1193</v>
+        <v>1306</v>
       </c>
       <c r="C25">
-        <v>0.39555701613426208</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D25"/>
     </row>
@@ -532,10 +508,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1194</v>
+        <v>1497</v>
       </c>
       <c r="C26">
-        <v>0.39588859677314758</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D26"/>
     </row>
@@ -544,10 +520,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1472</v>
+        <v>1658</v>
       </c>
       <c r="C27">
-        <v>0.48806366324424744</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D27"/>
     </row>
@@ -556,10 +532,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1660</v>
+        <v>1724</v>
       </c>
       <c r="C28">
-        <v>0.55039787292480469</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D28"/>
     </row>
@@ -568,10 +544,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1798</v>
+        <v>1865</v>
       </c>
       <c r="C29">
-        <v>0.5961538553237915</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D29"/>
     </row>
@@ -580,10 +556,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1817</v>
+        <v>1974</v>
       </c>
       <c r="C30">
-        <v>0.60245358943939209</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D30"/>
     </row>
@@ -592,10 +568,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1835</v>
+        <v>2030</v>
       </c>
       <c r="C31">
-        <v>0.60842174291610718</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D31"/>
     </row>
@@ -604,60 +580,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1859</v>
+        <v>2436</v>
       </c>
       <c r="C32">
-        <v>0.61637932062149048</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1890</v>
-      </c>
-      <c r="C33">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1965</v>
-      </c>
-      <c r="C34">
-        <v>0.65152519941329956</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2424</v>
-      </c>
-      <c r="C35">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2511</v>
-      </c>
-      <c r="C36">
-        <v>0.83255970478057861</v>
-      </c>
-      <c r="D36"/>
     </row>
   </sheetData>
 </worksheet>
@@ -665,103 +593,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
